--- a/jett-core/templates/ImplCollProcessingTemplate.xlsx
+++ b/jett-core/templates/ImplCollProcessingTemplate.xlsx
@@ -11,13 +11,19 @@
     <sheet name="LeftRight" sheetId="2" r:id="rId2"/>
     <sheet name="FixedHoriz" sheetId="3" r:id="rId3"/>
     <sheet name="TurnOff" sheetId="4" r:id="rId4"/>
+    <sheet name="No PAE" sheetId="8" r:id="rId5"/>
+    <sheet name="PAE Clear" sheetId="9" r:id="rId6"/>
+    <sheet name="PAE Remove" sheetId="10" r:id="rId7"/>
+    <sheet name="groupDirNone" sheetId="11" r:id="rId8"/>
+    <sheet name="groupDirRows" sheetId="12" r:id="rId9"/>
+    <sheet name="groupDirCols" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>City</t>
   </si>
@@ -110,6 +116,60 @@
   </si>
   <si>
     <t>${nevada.counties.size()}</t>
+  </si>
+  <si>
+    <t>Division: ${pacific.name}</t>
+  </si>
+  <si>
+    <t>Division: ${ofTheirOwn.name}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.city}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.name}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.wins}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.losses}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.pct}</t>
+  </si>
+  <si>
+    <t>${pacific.teams.city}</t>
+  </si>
+  <si>
+    <t>${pacific.teams.name}</t>
+  </si>
+  <si>
+    <t>${pacific.teams.wins}</t>
+  </si>
+  <si>
+    <t>${pacific.teams.losses}</t>
+  </si>
+  <si>
+    <t>${pacific.teams.pct}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.city}?@pastEndAction=clear</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.city}?@pastEndAction=remove</t>
+  </si>
+  <si>
+    <t>${divisionsList.teams.city}?@groupDir=rows;collapse=${divisionsList.name.equals('Southeast')}</t>
+  </si>
+  <si>
+    <t>${divisionsList.teams.city}?@groupDir=none;collapse=${divisionsList.name.equals('Southeast')}</t>
+  </si>
+  <si>
+    <t>${divisionsList.teams.city}?@left=0;right=4;groupDir=cols;collapse=${divisionsList.name.equals('Southeast')}</t>
+  </si>
+  <si>
+    <t>Division: ${divisionsList.name}?@extraRows=2;left=1;right=4;copyRight=true</t>
   </si>
 </sst>
 </file>
@@ -558,7 +618,71 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -777,4 +901,449 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jett-core/templates/ImplCollProcessingTemplate.xlsx
+++ b/jett-core/templates/ImplCollProcessingTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="10230"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="10230" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Implicit" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="groupDirNone" sheetId="11" r:id="rId8"/>
     <sheet name="groupDirRows" sheetId="12" r:id="rId9"/>
     <sheet name="groupDirCols" sheetId="13" r:id="rId10"/>
+    <sheet name="indexVar" sheetId="14" r:id="rId11"/>
+    <sheet name="limit" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
   <si>
     <t>City</t>
   </si>
@@ -170,6 +172,12 @@
   </si>
   <si>
     <t>Division: ${divisionsList.name}?@extraRows=2;left=1;right=4;copyRight=true</t>
+  </si>
+  <si>
+    <t>${index + 1}. ${divisionsList.teams.city}?@indexVar=index</t>
+  </si>
+  <si>
+    <t>${divisionsList.teams.city}?@limit=3</t>
   </si>
 </sst>
 </file>
@@ -555,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -681,6 +689,136 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jett-core/templates/ImplCollProcessingTemplate.xlsx
+++ b/jett-core/templates/ImplCollProcessingTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="10230" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Implicit" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="groupDirCols" sheetId="13" r:id="rId10"/>
     <sheet name="indexVar" sheetId="14" r:id="rId11"/>
     <sheet name="limit" sheetId="15" r:id="rId12"/>
+    <sheet name="CollNameReplace" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="63">
   <si>
     <t>City</t>
   </si>
@@ -178,6 +179,67 @@
   </si>
   <si>
     <t>${divisionsList.teams.city}?@limit=3</t>
+  </si>
+  <si>
+    <t>Counties</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Year Established</t>
+  </si>
+  <si>
+    <t>County Seat</t>
+  </si>
+  <si>
+    <t>FIPS Code</t>
+  </si>
+  <si>
+    <r>
+      <t>Area (km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>${county.name}</t>
+  </si>
+  <si>
+    <t>${county.population}</t>
+  </si>
+  <si>
+    <t>${county.area}</t>
+  </si>
+  <si>
+    <t>${county.establishedYear}</t>
+  </si>
+  <si>
+    <t>${county.countySeat}</t>
+  </si>
+  <si>
+    <t>${county.fipsCode}</t>
   </si>
 </sst>
 </file>
@@ -187,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +259,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -247,11 +318,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,6 +367,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -763,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -821,6 +942,83 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/jett-core/templates/ImplCollProcessingTemplate.xlsx
+++ b/jett-core/templates/ImplCollProcessingTemplate.xlsx
@@ -14,19 +14,20 @@
     <sheet name="No PAE" sheetId="8" r:id="rId5"/>
     <sheet name="PAE Clear" sheetId="9" r:id="rId6"/>
     <sheet name="PAE Remove" sheetId="10" r:id="rId7"/>
-    <sheet name="groupDirNone" sheetId="11" r:id="rId8"/>
-    <sheet name="groupDirRows" sheetId="12" r:id="rId9"/>
-    <sheet name="groupDirCols" sheetId="13" r:id="rId10"/>
-    <sheet name="indexVar" sheetId="14" r:id="rId11"/>
-    <sheet name="limit" sheetId="15" r:id="rId12"/>
-    <sheet name="CollNameReplace" sheetId="16" r:id="rId13"/>
+    <sheet name="PAE Replace Expr" sheetId="17" r:id="rId8"/>
+    <sheet name="groupDirNone" sheetId="11" r:id="rId9"/>
+    <sheet name="groupDirRows" sheetId="12" r:id="rId10"/>
+    <sheet name="groupDirCols" sheetId="13" r:id="rId11"/>
+    <sheet name="indexVar" sheetId="14" r:id="rId12"/>
+    <sheet name="limit" sheetId="15" r:id="rId13"/>
+    <sheet name="CollNameReplace" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
   <si>
     <t>City</t>
   </si>
@@ -240,6 +241,15 @@
   </si>
   <si>
     <t>${county.fipsCode}</t>
+  </si>
+  <si>
+    <t>City and Name</t>
+  </si>
+  <si>
+    <t>${pacific.teams.name} of ${pacific.teams.city}</t>
+  </si>
+  <si>
+    <t>${ofTheirOwn.teams.name} of ${ofTheirOwn.teams.city}?@pastEndAction=replaceExpr;replaceValue="-"</t>
   </si>
 </sst>
 </file>
@@ -359,19 +369,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,6 +389,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,13 +714,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -752,6 +771,71 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F3"/>
   <sheetViews>
@@ -765,13 +849,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -810,71 +894,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -895,13 +914,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -922,7 +941,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -947,10 +966,75 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,42 +1058,42 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1038,13 +1122,13 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1215,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1145,7 +1229,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1238,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1247,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1256,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,20 +1340,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1361,20 +1445,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1466,20 +1550,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1556,64 +1640,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1634,13 +1742,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1661,7 +1769,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>

--- a/jett-core/templates/ImplCollProcessingTemplate.xlsx
+++ b/jett-core/templates/ImplCollProcessingTemplate.xlsx
@@ -21,13 +21,15 @@
     <sheet name="indexVar" sheetId="14" r:id="rId12"/>
     <sheet name="limit" sheetId="15" r:id="rId13"/>
     <sheet name="CollNameReplace" sheetId="16" r:id="rId14"/>
+    <sheet name="leftOnly" sheetId="18" r:id="rId15"/>
+    <sheet name="rightOnly" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>City</t>
   </si>
@@ -250,6 +252,18 @@
   </si>
   <si>
     <t>${ofTheirOwn.teams.name} of ${ofTheirOwn.teams.city}?@pastEndAction=replaceExpr;replaceValue="-"</t>
+  </si>
+  <si>
+    <t>Division:</t>
+  </si>
+  <si>
+    <t>Full Season Games</t>
+  </si>
+  <si>
+    <t>${divisionsList.name}?@extraRows=2;left=5</t>
+  </si>
+  <si>
+    <t>Division: ${divisionsList.name}?@extraRows=2;right=5</t>
   </si>
 </sst>
 </file>
@@ -369,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -382,6 +396,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,15 +414,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,14 +1078,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1106,11 +1136,216 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="23">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="23">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1653,18 +1888,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/jett-core/templates/ImplCollProcessingTemplate.xlsx
+++ b/jett-core/templates/ImplCollProcessingTemplate.xlsx
@@ -23,13 +23,14 @@
     <sheet name="CollNameReplace" sheetId="16" r:id="rId14"/>
     <sheet name="leftOnly" sheetId="18" r:id="rId15"/>
     <sheet name="rightOnly" sheetId="19" r:id="rId16"/>
+    <sheet name="varStatus" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>City</t>
   </si>
@@ -264,6 +265,39 @@
   </si>
   <si>
     <t>Division: ${divisionsList.name}?@extraRows=2;right=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index </t>
+  </si>
+  <si>
+    <t>First?</t>
+  </si>
+  <si>
+    <t>Last?</t>
+  </si>
+  <si>
+    <t>Division: ${divisionsList.name}?@extraRows=2;varStatus=ds</t>
+  </si>
+  <si>
+    <t>${ds.first}</t>
+  </si>
+  <si>
+    <t>${ds.last}</t>
+  </si>
+  <si>
+    <t>${ts.last}</t>
+  </si>
+  <si>
+    <t>${divisionsList.teams.city}?@varStatus=ts</t>
+  </si>
+  <si>
+    <t>${ts.first}</t>
+  </si>
+  <si>
+    <t>${ds.index} of ${ds.numIterations}</t>
+  </si>
+  <si>
+    <t>${ts.index} of ${ts.numIterations}</t>
   </si>
 </sst>
 </file>
@@ -383,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,6 +426,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -414,12 +452,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -429,7 +461,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,13 +780,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -815,13 +851,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -879,13 +915,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -934,7 +970,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,13 +980,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1009,13 +1045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1064,7 +1100,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,14 +1114,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1140,7 +1176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1153,14 +1191,14 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H1" t="s">
@@ -1212,7 +1250,7 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="9">
         <v>82</v>
       </c>
       <c r="H3" t="s">
@@ -1256,14 +1294,14 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1351,7 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="9">
         <v>82</v>
       </c>
       <c r="H3" t="s">
@@ -1334,6 +1372,98 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,13 +1487,13 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1464,7 +1594,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1603,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1612,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1621,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1575,20 +1705,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1680,20 +1810,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1785,20 +1915,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1888,18 +2018,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1977,13 +2107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
